--- a/基本設計Excel/基本設計_池原.xlsx
+++ b/基本設計Excel/基本設計_池原.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\グループ開発\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\groupA\基本設計Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE90A0C5-4613-469B-8413-735347504A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7F433D-7A74-4F0E-8A83-2D4EB94847B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{453535DF-6057-464A-8E14-1004EC423360}"/>
+    <workbookView xWindow="795" yWindow="345" windowWidth="17115" windowHeight="12015" xr2:uid="{453535DF-6057-464A-8E14-1004EC423360}"/>
   </bookViews>
   <sheets>
     <sheet name="設定画面" sheetId="3" r:id="rId1"/>
@@ -755,20 +755,23 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -806,23 +809,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -848,15 +848,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
+      <xdr:colOff>168088</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>139511</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>165110</xdr:rowOff>
+      <xdr:colOff>150717</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -878,7 +878,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3417794" y="1613647"/>
+          <a:off x="3429000" y="1647265"/>
           <a:ext cx="3209923" cy="4468169"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3030,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CBA2EE-A7C5-48FA-A079-9B54DCC95666}">
   <dimension ref="A1:ER244"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AW30" sqref="AW30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3045,64 +3045,64 @@
   <sheetData>
     <row r="1" spans="1:148" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:148" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="56" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="57">
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="58">
         <v>43997</v>
       </c>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="59"/>
       <c r="CH2" s="7"/>
       <c r="CI2" s="7"/>
       <c r="CJ2" s="7"/>
@@ -3168,62 +3168,62 @@
       <c r="ER2" s="7"/>
     </row>
     <row r="3" spans="1:148" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="59" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="60" t="s">
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="60"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="60"/>
-      <c r="AZ3" s="60"/>
-      <c r="BA3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="62"/>
       <c r="CH3" s="7"/>
       <c r="CI3" s="7"/>
       <c r="CJ3" s="7"/>
@@ -3356,66 +3356,66 @@
       <c r="ER4" s="7"/>
     </row>
     <row r="5" spans="1:148" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="62" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="65" t="s">
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="66"/>
-      <c r="AN5" s="66"/>
-      <c r="AO5" s="66"/>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="66"/>
-      <c r="AR5" s="66"/>
-      <c r="AS5" s="66"/>
-      <c r="AT5" s="66"/>
-      <c r="AU5" s="66"/>
-      <c r="AV5" s="66"/>
-      <c r="AW5" s="66"/>
-      <c r="AX5" s="66"/>
-      <c r="AY5" s="66"/>
-      <c r="AZ5" s="66"/>
-      <c r="BA5" s="67"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="50"/>
       <c r="CH5" s="7"/>
       <c r="CI5" s="7"/>
       <c r="CJ5" s="7"/>
@@ -3720,12 +3720,12 @@
       <c r="A8" s="7"/>
       <c r="B8" s="12"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="13"/>
       <c r="K8" s="7"/>
       <c r="L8" s="13"/>
@@ -3734,11 +3734,11 @@
       <c r="O8" s="13"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
       <c r="W8" s="7"/>
       <c r="X8" s="13"/>
       <c r="Y8" s="7"/>
@@ -3753,17 +3753,17 @@
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="47"/>
-      <c r="AP8" s="47"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
-      <c r="AT8" s="47"/>
-      <c r="AU8" s="47"/>
+      <c r="AK8" s="65"/>
+      <c r="AL8" s="65"/>
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="65"/>
+      <c r="AQ8" s="65"/>
+      <c r="AR8" s="65"/>
+      <c r="AS8" s="65"/>
+      <c r="AT8" s="65"/>
+      <c r="AU8" s="65"/>
       <c r="AV8" s="15"/>
       <c r="AW8" s="15"/>
       <c r="AX8" s="15"/>
@@ -3838,12 +3838,12 @@
       <c r="A9" s="7"/>
       <c r="B9" s="12"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -3852,11 +3852,11 @@
       <c r="O9" s="16"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
@@ -3871,17 +3871,17 @@
       <c r="AH9" s="16"/>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
-      <c r="AK9" s="47"/>
-      <c r="AL9" s="47"/>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="47"/>
-      <c r="AO9" s="47"/>
-      <c r="AP9" s="47"/>
-      <c r="AQ9" s="47"/>
-      <c r="AR9" s="47"/>
-      <c r="AS9" s="47"/>
-      <c r="AT9" s="47"/>
-      <c r="AU9" s="47"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
       <c r="AV9" s="15"/>
       <c r="AW9" s="15"/>
       <c r="AX9" s="15"/>
@@ -5169,17 +5169,17 @@
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
-      <c r="AK20" s="47"/>
-      <c r="AL20" s="47"/>
-      <c r="AM20" s="47"/>
-      <c r="AN20" s="47"/>
-      <c r="AO20" s="47"/>
-      <c r="AP20" s="47"/>
-      <c r="AQ20" s="47"/>
-      <c r="AR20" s="47"/>
-      <c r="AS20" s="47"/>
-      <c r="AT20" s="47"/>
-      <c r="AU20" s="47"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="65"/>
       <c r="AV20" s="15"/>
       <c r="AW20" s="15"/>
       <c r="AX20" s="15"/>
@@ -5287,17 +5287,17 @@
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
-      <c r="AK21" s="47"/>
-      <c r="AL21" s="47"/>
-      <c r="AM21" s="47"/>
-      <c r="AN21" s="47"/>
-      <c r="AO21" s="47"/>
-      <c r="AP21" s="47"/>
-      <c r="AQ21" s="47"/>
-      <c r="AR21" s="47"/>
-      <c r="AS21" s="47"/>
-      <c r="AT21" s="47"/>
-      <c r="AU21" s="47"/>
+      <c r="AK21" s="65"/>
+      <c r="AL21" s="65"/>
+      <c r="AM21" s="65"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="65"/>
+      <c r="AQ21" s="65"/>
+      <c r="AR21" s="65"/>
+      <c r="AS21" s="65"/>
+      <c r="AT21" s="65"/>
+      <c r="AU21" s="65"/>
       <c r="AV21" s="15"/>
       <c r="AW21" s="15"/>
       <c r="AX21" s="15"/>
@@ -5962,19 +5962,19 @@
       <c r="A27" s="7"/>
       <c r="B27" s="12"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
@@ -6080,19 +6080,19 @@
       <c r="A28" s="7"/>
       <c r="B28" s="12"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
       <c r="Q28" s="13"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -6113,17 +6113,17 @@
       <c r="AH28" s="23"/>
       <c r="AI28" s="23"/>
       <c r="AJ28" s="23"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
-      <c r="AM28" s="49"/>
-      <c r="AN28" s="49"/>
-      <c r="AO28" s="49"/>
-      <c r="AP28" s="49"/>
-      <c r="AQ28" s="49"/>
-      <c r="AR28" s="49"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="49"/>
-      <c r="AU28" s="49"/>
+      <c r="AK28" s="67"/>
+      <c r="AL28" s="67"/>
+      <c r="AM28" s="67"/>
+      <c r="AN28" s="67"/>
+      <c r="AO28" s="67"/>
+      <c r="AP28" s="67"/>
+      <c r="AQ28" s="67"/>
+      <c r="AR28" s="67"/>
+      <c r="AS28" s="67"/>
+      <c r="AT28" s="67"/>
+      <c r="AU28" s="67"/>
       <c r="AV28" s="7"/>
       <c r="AW28" s="7"/>
       <c r="AX28" s="7"/>
@@ -6198,19 +6198,19 @@
       <c r="A29" s="7"/>
       <c r="B29" s="12"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
@@ -6231,17 +6231,17 @@
       <c r="AH29" s="23"/>
       <c r="AI29" s="23"/>
       <c r="AJ29" s="23"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="49"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="49"/>
-      <c r="AO29" s="49"/>
-      <c r="AP29" s="49"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="49"/>
-      <c r="AU29" s="49"/>
+      <c r="AK29" s="67"/>
+      <c r="AL29" s="67"/>
+      <c r="AM29" s="67"/>
+      <c r="AN29" s="67"/>
+      <c r="AO29" s="67"/>
+      <c r="AP29" s="67"/>
+      <c r="AQ29" s="67"/>
+      <c r="AR29" s="67"/>
+      <c r="AS29" s="67"/>
+      <c r="AT29" s="67"/>
+      <c r="AU29" s="67"/>
       <c r="AV29" s="7"/>
       <c r="AW29" s="7"/>
       <c r="AX29" s="7"/>
@@ -6316,19 +6316,19 @@
       <c r="A30" s="7"/>
       <c r="B30" s="12"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
@@ -6434,19 +6434,19 @@
       <c r="A31" s="7"/>
       <c r="B31" s="12"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
@@ -22939,6 +22939,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D8:I9"/>
+    <mergeCell ref="R8:V9"/>
+    <mergeCell ref="AK8:AU9"/>
+    <mergeCell ref="AK20:AU21"/>
+    <mergeCell ref="D27:P31"/>
+    <mergeCell ref="AK28:AU29"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:M5"/>
@@ -22948,12 +22954,6 @@
     <mergeCell ref="AR2:BA2"/>
     <mergeCell ref="AL3:AQ3"/>
     <mergeCell ref="AR3:BA3"/>
-    <mergeCell ref="D8:I9"/>
-    <mergeCell ref="R8:V9"/>
-    <mergeCell ref="AK8:AU9"/>
-    <mergeCell ref="AK20:AU21"/>
-    <mergeCell ref="D27:P31"/>
-    <mergeCell ref="AK28:AU29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
@@ -22977,8 +22977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB832AF-06AA-4517-8943-3B09D743F82F}">
   <dimension ref="A1:ER244"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="BC25" sqref="BC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22992,64 +22992,64 @@
   <sheetData>
     <row r="1" spans="1:148" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:148" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="56" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="57">
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="58">
         <v>43997</v>
       </c>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="59"/>
       <c r="CH2" s="7"/>
       <c r="CI2" s="7"/>
       <c r="CJ2" s="7"/>
@@ -23115,62 +23115,62 @@
       <c r="ER2" s="7"/>
     </row>
     <row r="3" spans="1:148" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="59" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="60" t="s">
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="60"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="60"/>
-      <c r="AZ3" s="60"/>
-      <c r="BA3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="62"/>
       <c r="CH3" s="7"/>
       <c r="CI3" s="7"/>
       <c r="CJ3" s="7"/>
@@ -23303,66 +23303,66 @@
       <c r="ER4" s="7"/>
     </row>
     <row r="5" spans="1:148" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="62" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="65" t="s">
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="66"/>
-      <c r="AN5" s="66"/>
-      <c r="AO5" s="66"/>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="66"/>
-      <c r="AR5" s="66"/>
-      <c r="AS5" s="66"/>
-      <c r="AT5" s="66"/>
-      <c r="AU5" s="66"/>
-      <c r="AV5" s="66"/>
-      <c r="AW5" s="66"/>
-      <c r="AX5" s="66"/>
-      <c r="AY5" s="66"/>
-      <c r="AZ5" s="66"/>
-      <c r="BA5" s="67"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="50"/>
       <c r="CH5" s="7"/>
       <c r="CI5" s="7"/>
       <c r="CJ5" s="7"/>
@@ -23667,12 +23667,12 @@
       <c r="A8" s="7"/>
       <c r="B8" s="12"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="13"/>
       <c r="K8" s="7"/>
       <c r="L8" s="13"/>
@@ -23681,11 +23681,11 @@
       <c r="O8" s="13"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
       <c r="W8" s="7"/>
       <c r="X8" s="13"/>
       <c r="Y8" s="7"/>
@@ -23700,17 +23700,17 @@
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="47"/>
-      <c r="AP8" s="47"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
-      <c r="AT8" s="47"/>
-      <c r="AU8" s="47"/>
+      <c r="AK8" s="65"/>
+      <c r="AL8" s="65"/>
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="65"/>
+      <c r="AQ8" s="65"/>
+      <c r="AR8" s="65"/>
+      <c r="AS8" s="65"/>
+      <c r="AT8" s="65"/>
+      <c r="AU8" s="65"/>
       <c r="AV8" s="15"/>
       <c r="AW8" s="15"/>
       <c r="AX8" s="15"/>
@@ -23785,12 +23785,12 @@
       <c r="A9" s="7"/>
       <c r="B9" s="12"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -23799,11 +23799,11 @@
       <c r="O9" s="16"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
@@ -23818,17 +23818,17 @@
       <c r="AH9" s="16"/>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
-      <c r="AK9" s="47"/>
-      <c r="AL9" s="47"/>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="47"/>
-      <c r="AO9" s="47"/>
-      <c r="AP9" s="47"/>
-      <c r="AQ9" s="47"/>
-      <c r="AR9" s="47"/>
-      <c r="AS9" s="47"/>
-      <c r="AT9" s="47"/>
-      <c r="AU9" s="47"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
       <c r="AV9" s="15"/>
       <c r="AW9" s="15"/>
       <c r="AX9" s="15"/>
@@ -25116,17 +25116,17 @@
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
-      <c r="AK20" s="47"/>
-      <c r="AL20" s="47"/>
-      <c r="AM20" s="47"/>
-      <c r="AN20" s="47"/>
-      <c r="AO20" s="47"/>
-      <c r="AP20" s="47"/>
-      <c r="AQ20" s="47"/>
-      <c r="AR20" s="47"/>
-      <c r="AS20" s="47"/>
-      <c r="AT20" s="47"/>
-      <c r="AU20" s="47"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="65"/>
       <c r="AV20" s="15"/>
       <c r="AW20" s="15"/>
       <c r="AX20" s="15"/>
@@ -25234,17 +25234,17 @@
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
-      <c r="AK21" s="47"/>
-      <c r="AL21" s="47"/>
-      <c r="AM21" s="47"/>
-      <c r="AN21" s="47"/>
-      <c r="AO21" s="47"/>
-      <c r="AP21" s="47"/>
-      <c r="AQ21" s="47"/>
-      <c r="AR21" s="47"/>
-      <c r="AS21" s="47"/>
-      <c r="AT21" s="47"/>
-      <c r="AU21" s="47"/>
+      <c r="AK21" s="65"/>
+      <c r="AL21" s="65"/>
+      <c r="AM21" s="65"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="65"/>
+      <c r="AQ21" s="65"/>
+      <c r="AR21" s="65"/>
+      <c r="AS21" s="65"/>
+      <c r="AT21" s="65"/>
+      <c r="AU21" s="65"/>
       <c r="AV21" s="15"/>
       <c r="AW21" s="15"/>
       <c r="AX21" s="15"/>
